--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Promantus\Downloads\ComplyBDDFrontendTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDDFrontEndAutomation-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1A649-AA49-4A24-8EC2-10A6F7FF1DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD0B7D-116D-423C-9611-074EB9B83714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1080" windowWidth="19215" windowHeight="9840" xr2:uid="{22D5A1CE-524F-4161-9CE3-2FF50537453C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{22D5A1CE-524F-4161-9CE3-2FF50537453C}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="customer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
@@ -48,12 +49,40 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>AdminComment</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ferdinand.koss@hotmail.com</t>
+  </si>
+  <si>
+    <t>tera.braun@hotmail.com</t>
+  </si>
+  <si>
+    <t>cedrick.emard@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,9 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,17 +442,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBF4D39-838E-47BC-B0E8-40DC26EF4301}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -430,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -438,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -447,4 +477,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C965F34-F188-45F9-BDBB-28F450A4E7B2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>33888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>